--- a/data/Alfa Round3 + post.xlsx
+++ b/data/Alfa Round3 + post.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Sheet0!$A$2:$AM$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Sheet0!$A$2:$AM$9</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -1205,39 +1205,393 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>44482.73025462963</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44482.732511574075</v>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>44482.73251826389</v>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>R_3GlykUYrGU7stA3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>EN-GB</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>29957.0</v>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>did is last 2 times, who not now</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat agree</t>
+        </is>
+      </c>
+      <c r="X7" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat agree</t>
+        </is>
+      </c>
+      <c r="Y7" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat agree</t>
+        </is>
+      </c>
+      <c r="Z7" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat agree</t>
+        </is>
+      </c>
+      <c r="AA7" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat agree</t>
+        </is>
+      </c>
+      <c r="AB7" s="2" t="inlineStr">
+        <is>
+          <t>Somewhat agree</t>
+        </is>
+      </c>
+      <c r="AC7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AF7" s="2" t="inlineStr">
+        <is>
+          <t>Version 3</t>
+        </is>
+      </c>
+      <c r="AG7" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH7" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI7" s="2" t="inlineStr">
+        <is>
+          <t>most explanations given, feels detailed and secure</t>
+        </is>
+      </c>
+      <c r="AJ7" s="2" t="inlineStr">
+        <is>
+          <t>Yes, I would probably be willing to</t>
+        </is>
+      </c>
+      <c r="AK7" s="2" t="inlineStr">
+        <is>
+          <t>it seems safe and easy</t>
+        </is>
+      </c>
+      <c r="AL7" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM7" s="2" t="inlineStr">
+        <is>
+          <t>29957</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>44488.898206018515</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44488.90262731481</v>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>381.0</v>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>44488.90263092593</v>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>R_1GZmkXSfkW2JUZO</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>*******</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>EN-GB</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>42739.0</v>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>I trust its safe</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="X8" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="Y8" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="Z8" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AA8" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AB8" s="2" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AF8" s="2" t="inlineStr">
+        <is>
+          <t>Version 3</t>
+        </is>
+      </c>
+      <c r="AG8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI8" s="2" t="inlineStr">
+        <is>
+          <t>done it before</t>
+        </is>
+      </c>
+      <c r="AJ8" s="2" t="inlineStr">
+        <is>
+          <t>Yes, I would probably be willing to</t>
+        </is>
+      </c>
+      <c r="AK8" s="2" t="inlineStr">
+        <is>
+          <t>depend on the research</t>
+        </is>
+      </c>
+      <c r="AL8" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM8" s="2" t="inlineStr">
+        <is>
+          <t>42739</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AM7"/>
+  <autoFilter ref="A2:AM9"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C6" numberStoredAsText="true"/>
-    <ignoredError sqref="D1:D6" numberStoredAsText="true"/>
-    <ignoredError sqref="G1:G6" numberStoredAsText="true"/>
-    <ignoredError sqref="I1:I6" numberStoredAsText="true"/>
-    <ignoredError sqref="J1:J6" numberStoredAsText="true"/>
-    <ignoredError sqref="K1:K6" numberStoredAsText="true"/>
-    <ignoredError sqref="L1:L6" numberStoredAsText="true"/>
-    <ignoredError sqref="M1:M6" numberStoredAsText="true"/>
-    <ignoredError sqref="N1:N6" numberStoredAsText="true"/>
-    <ignoredError sqref="O1:O6" numberStoredAsText="true"/>
-    <ignoredError sqref="P1:P6" numberStoredAsText="true"/>
-    <ignoredError sqref="Q1:Q6" numberStoredAsText="true"/>
-    <ignoredError sqref="S1:S6" numberStoredAsText="true"/>
-    <ignoredError sqref="U1:U6" numberStoredAsText="true"/>
-    <ignoredError sqref="V1:V6" numberStoredAsText="true"/>
-    <ignoredError sqref="W1:W6" numberStoredAsText="true"/>
-    <ignoredError sqref="X1:X6" numberStoredAsText="true"/>
-    <ignoredError sqref="Y1:Y6" numberStoredAsText="true"/>
-    <ignoredError sqref="Z1:Z6" numberStoredAsText="true"/>
-    <ignoredError sqref="AA1:AA6" numberStoredAsText="true"/>
-    <ignoredError sqref="AB1:AB6" numberStoredAsText="true"/>
-    <ignoredError sqref="AF1:AF6" numberStoredAsText="true"/>
-    <ignoredError sqref="AG1:AG6" numberStoredAsText="true"/>
-    <ignoredError sqref="AH1:AH6" numberStoredAsText="true"/>
-    <ignoredError sqref="AI1:AI6" numberStoredAsText="true"/>
-    <ignoredError sqref="AJ1:AJ6" numberStoredAsText="true"/>
-    <ignoredError sqref="AK1:AK6" numberStoredAsText="true"/>
-    <ignoredError sqref="AL1:AL6" numberStoredAsText="true"/>
-    <ignoredError sqref="AM1:AM6" numberStoredAsText="true"/>
+    <ignoredError sqref="C1:C8" numberStoredAsText="true"/>
+    <ignoredError sqref="D1:D8" numberStoredAsText="true"/>
+    <ignoredError sqref="G1:G8" numberStoredAsText="true"/>
+    <ignoredError sqref="I1:I8" numberStoredAsText="true"/>
+    <ignoredError sqref="J1:J8" numberStoredAsText="true"/>
+    <ignoredError sqref="K1:K8" numberStoredAsText="true"/>
+    <ignoredError sqref="L1:L8" numberStoredAsText="true"/>
+    <ignoredError sqref="M1:M8" numberStoredAsText="true"/>
+    <ignoredError sqref="N1:N8" numberStoredAsText="true"/>
+    <ignoredError sqref="O1:O8" numberStoredAsText="true"/>
+    <ignoredError sqref="P1:P8" numberStoredAsText="true"/>
+    <ignoredError sqref="Q1:Q8" numberStoredAsText="true"/>
+    <ignoredError sqref="S1:S8" numberStoredAsText="true"/>
+    <ignoredError sqref="U1:U8" numberStoredAsText="true"/>
+    <ignoredError sqref="V1:V8" numberStoredAsText="true"/>
+    <ignoredError sqref="W1:W8" numberStoredAsText="true"/>
+    <ignoredError sqref="X1:X8" numberStoredAsText="true"/>
+    <ignoredError sqref="Y1:Y8" numberStoredAsText="true"/>
+    <ignoredError sqref="Z1:Z8" numberStoredAsText="true"/>
+    <ignoredError sqref="AA1:AA8" numberStoredAsText="true"/>
+    <ignoredError sqref="AB1:AB8" numberStoredAsText="true"/>
+    <ignoredError sqref="AF1:AF8" numberStoredAsText="true"/>
+    <ignoredError sqref="AG1:AG8" numberStoredAsText="true"/>
+    <ignoredError sqref="AH1:AH8" numberStoredAsText="true"/>
+    <ignoredError sqref="AI1:AI8" numberStoredAsText="true"/>
+    <ignoredError sqref="AJ1:AJ8" numberStoredAsText="true"/>
+    <ignoredError sqref="AK1:AK8" numberStoredAsText="true"/>
+    <ignoredError sqref="AL1:AL8" numberStoredAsText="true"/>
+    <ignoredError sqref="AM1:AM8" numberStoredAsText="true"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
